--- a/2.Preprocesamiento/Dataset_depresivo_Limpio.xlsx
+++ b/2.Preprocesamiento/Dataset_depresivo_Limpio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20235" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8256" uniqueCount="5538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8276" uniqueCount="5552">
   <si>
     <t>id</t>
   </si>
@@ -16633,6 +16633,48 @@
   </si>
   <si>
     <t>-0.653327965519664,-78.58609080904333,27.938880788174096km</t>
+  </si>
+  <si>
+    <t>17:56:32</t>
+  </si>
+  <si>
+    <t>gracias a dios tengo a lizzie y al neuryl para calmar mi ansiedad</t>
+  </si>
+  <si>
+    <t>['gracias', 'dios', 'lizzie', 'neuryl', 'calmar', 'ansiedad']</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>22:28:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoy estoy escribiendo porque tengo ansiedad el pecho me aprieta quiero llorar necesito que sea viernes y tener mas de aciertos cara_de_por_favor dos_corazones </t>
+  </si>
+  <si>
+    <t>['hoy', 'escribir', 'ansiedad', 'pecho', 'yo', 'aprieta', 'querer', 'llorar', 'necesitar', 'viernes', 'tener', 'acierto', 'cara_de_por_favor', 'dos_corazones']</t>
+  </si>
+  <si>
+    <t>22:41:52</t>
+  </si>
+  <si>
+    <t>esta semana sustento mi tesis y lo unico que quiero es que mi episodio depresivo no se presente a gran escala</t>
+  </si>
+  <si>
+    <t>['semana', 'sustento', 'tesis', 'unico', 'querer', 'episodio', 'depresivo', 'no', 'presente', 'gran', 'escala']</t>
+  </si>
+  <si>
+    <t>2020-10-10</t>
+  </si>
+  <si>
+    <t>08:34:47</t>
+  </si>
+  <si>
+    <t>no quiero que este episodio depresivo me de tan fuerte no a dos semanas de mi sustentacion</t>
+  </si>
+  <si>
+    <t>['no', 'querer', 'episodio', 'depresivo', 'yo', 'tanto', 'fuerte', 'no', 'dos', 'semana', 'sustentacion']</t>
   </si>
 </sst>
 </file>
@@ -16995,13 +17037,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1651"/>
+  <dimension ref="A1:F1655"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1629" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1639" workbookViewId="0">
+      <selection activeCell="E1659" sqref="E1659"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="5" max="5" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -50024,6 +50069,86 @@
         <v>5537</v>
       </c>
     </row>
+    <row r="1652" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1652">
+        <v>1.381380677023711E+18</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>762</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>5538</v>
+      </c>
+      <c r="D1652" t="s">
+        <v>5539</v>
+      </c>
+      <c r="E1652" t="s">
+        <v>5540</v>
+      </c>
+      <c r="F1652" t="s">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1653">
+        <v>1.4484909372068539E+18</v>
+      </c>
+      <c r="B1653" t="s">
+        <v>5541</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1653" t="s">
+        <v>5543</v>
+      </c>
+      <c r="E1653" t="s">
+        <v>5544</v>
+      </c>
+      <c r="F1653" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1654">
+        <v>1.32057132127377E+18</v>
+      </c>
+      <c r="B1654" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>5545</v>
+      </c>
+      <c r="D1654" t="s">
+        <v>5546</v>
+      </c>
+      <c r="E1654" t="s">
+        <v>5547</v>
+      </c>
+      <c r="F1654" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1655">
+        <v>1.314922325838529E+18</v>
+      </c>
+      <c r="B1655" t="s">
+        <v>5548</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>5549</v>
+      </c>
+      <c r="D1655" t="s">
+        <v>5550</v>
+      </c>
+      <c r="E1655" t="s">
+        <v>5551</v>
+      </c>
+      <c r="F1655" t="s">
+        <v>4394</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
